--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r106_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r106_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -448,10 +460,10 @@
       <c r="I11">
         <f>((C11-C10)^2+(D11- D10)^2)^.5</f>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L11" t="n">
@@ -495,28 +507,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="2">
+      <c r="A13" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D13" t="s" s="2">
+      <c r="D13" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -541,28 +553,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C15" t="s" s="2">
+      <c r="C15" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D15" t="s" s="2">
+      <c r="D15" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I15" t="s" s="2">
+      <c r="I15" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -679,10 +691,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -726,28 +738,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="2">
+      <c r="A21" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="2">
+      <c r="C21" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D21" t="s" s="2">
+      <c r="D21" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -772,28 +784,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="2">
+      <c r="C23" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="2">
+      <c r="D23" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="2">
+      <c r="I23" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1026,10 +1038,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="J31" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="K31" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1073,28 +1085,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="2">
+      <c r="A33" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="2">
+      <c r="C33" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D33" t="s" s="2">
+      <c r="D33" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1119,28 +1131,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="2">
+      <c r="C35" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="2">
+      <c r="D35" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="2">
+      <c r="I35" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1373,10 +1385,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="2" t="s">
+      <c r="J43" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="K43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1420,28 +1432,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2">
+      <c r="A45" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="2">
+      <c r="C45" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D45" t="s" s="2">
+      <c r="D45" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1466,28 +1478,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="2">
+      <c r="C47" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="2">
+      <c r="D47" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="2">
+      <c r="I47" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1691,10 +1703,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="2" t="s">
+      <c r="J54" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K54" s="2" t="s">
+      <c r="K54" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1738,28 +1750,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="2">
+      <c r="A56" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="2">
+      <c r="C56" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D56" t="s" s="2">
+      <c r="D56" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1784,28 +1796,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="2">
+      <c r="C58" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="2">
+      <c r="D58" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="2">
+      <c r="I58" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2038,10 +2050,10 @@
       <c r="I66">
         <f>((C66-C65)^2+(D66- D65)^2)^.5</f>
       </c>
-      <c r="J66" s="2" t="s">
+      <c r="J66" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K66" s="2" t="s">
+      <c r="K66" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L66" t="n">
@@ -2085,28 +2097,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="2">
+      <c r="A68" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2131,28 +2143,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="B70" t="s" s="2">
+      <c r="B70" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C70" t="s" s="2">
+      <c r="C70" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D70" t="s" s="2">
+      <c r="D70" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E70" t="s" s="2">
+      <c r="E70" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F70" t="s" s="2">
+      <c r="F70" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G70" t="s" s="2">
+      <c r="G70" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H70" t="s" s="2">
+      <c r="H70" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I70" t="s" s="2">
+      <c r="I70" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2356,10 +2368,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="2" t="s">
+      <c r="J77" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K77" s="2" t="s">
+      <c r="K77" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2403,28 +2415,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="2">
+      <c r="A79" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="2">
+      <c r="C79" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D79" t="s" s="2">
+      <c r="D79" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2449,28 +2461,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="2">
+      <c r="C81" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="2">
+      <c r="D81" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="2">
+      <c r="I81" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2732,10 +2744,10 @@
       <c r="I90">
         <f>((C90-C89)^2+(D90- D89)^2)^.5</f>
       </c>
-      <c r="J90" s="2" t="s">
+      <c r="J90" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K90" s="2" t="s">
+      <c r="K90" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L90" t="n">
@@ -2779,28 +2791,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="2">
+      <c r="A92" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C92" t="s" s="2">
+      <c r="C92" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D92" t="s" s="2">
+      <c r="D92" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2825,28 +2837,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C94" t="s" s="2">
+      <c r="C94" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D94" t="s" s="2">
+      <c r="D94" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I94" t="s" s="2">
+      <c r="I94" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3137,10 +3149,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="2" t="s">
+      <c r="J104" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K104" s="2" t="s">
+      <c r="K104" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3184,28 +3196,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="2">
+      <c r="A106" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="2">
+      <c r="C106" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D106" t="s" s="2">
+      <c r="D106" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3230,28 +3242,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="2">
+      <c r="C108" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="2">
+      <c r="D108" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="2">
+      <c r="I108" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3455,10 +3467,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="2" t="s">
+      <c r="J115" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K115" s="2" t="s">
+      <c r="K115" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3502,28 +3514,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="2">
+      <c r="A117" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="2">
+      <c r="C117" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D117" t="s" s="2">
+      <c r="D117" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3548,28 +3560,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="2">
+      <c r="C119" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="2">
+      <c r="D119" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="2">
+      <c r="I119" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3802,10 +3814,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="2" t="s">
+      <c r="J127" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K127" s="2" t="s">
+      <c r="K127" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3849,28 +3861,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="2">
+      <c r="A129" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="2">
+      <c r="C129" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D129" t="s" s="2">
+      <c r="D129" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3895,28 +3907,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="2">
+      <c r="C131" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="2">
+      <c r="D131" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="2">
+      <c r="I131" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4091,10 +4103,10 @@
       <c r="I137">
         <f>((C137-C136)^2+(D137- D136)^2)^.5</f>
       </c>
-      <c r="J137" s="2" t="s">
+      <c r="J137" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K137" s="2" t="s">
+      <c r="K137" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L137" t="n">
@@ -4138,28 +4150,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="2">
+      <c r="A139" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="C139" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D139" t="s" s="2">
+      <c r="D139" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4184,28 +4196,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C141" t="s" s="2">
+      <c r="C141" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D141" t="s" s="2">
+      <c r="D141" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I141" t="s" s="2">
+      <c r="I141" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4409,10 +4421,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="2" t="s">
+      <c r="J148" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K148" s="2" t="s">
+      <c r="K148" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4456,28 +4468,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="2">
+      <c r="A150" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="2">
+      <c r="C150" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D150" t="s" s="2">
+      <c r="D150" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4502,28 +4514,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="2">
+      <c r="C152" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="2">
+      <c r="D152" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="2">
+      <c r="I152" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4669,10 +4681,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="2" t="s">
+      <c r="J157" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K157" s="2" t="s">
+      <c r="K157" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4716,28 +4728,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="2">
+      <c r="A159" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="2">
+      <c r="C159" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D159" t="s" s="2">
+      <c r="D159" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4762,28 +4774,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="C161" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="2">
+      <c r="D161" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="2">
+      <c r="I161" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5016,10 +5028,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="2" t="s">
+      <c r="J169" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K169" s="2" t="s">
+      <c r="K169" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5063,28 +5075,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="2">
+      <c r="A171" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="2">
+      <c r="C171" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D171" t="s" s="2">
+      <c r="D171" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5109,28 +5121,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="C173" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="2">
+      <c r="D173" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="2">
+      <c r="I173" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5247,10 +5259,10 @@
       <c r="I177">
         <f>((C177-C176)^2+(D177- D176)^2)^.5</f>
       </c>
-      <c r="J177" s="2" t="s">
+      <c r="J177" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K177" s="2" t="s">
+      <c r="K177" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L177" t="n">
@@ -5294,28 +5306,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="2">
+      <c r="A179" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C179" t="s" s="2">
+      <c r="C179" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D179" t="s" s="2">
+      <c r="D179" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5340,28 +5352,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C181" t="s" s="2">
+      <c r="C181" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D181" t="s" s="2">
+      <c r="D181" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I181" t="s" s="2">
+      <c r="I181" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5420,10 +5432,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="2" t="s">
+      <c r="J183" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K183" s="2" t="s">
+      <c r="K183" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5467,28 +5479,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="2">
+      <c r="A185" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="2">
+      <c r="C185" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D185" t="s" s="2">
+      <c r="D185" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5513,28 +5525,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="2">
+      <c r="C187" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="2">
+      <c r="D187" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="2">
+      <c r="I187" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5622,10 +5634,10 @@
       <c r="I190">
         <f>((C190-C189)^2+(D190- D189)^2)^.5</f>
       </c>
-      <c r="J190" s="2" t="s">
+      <c r="J190" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K190" s="2" t="s">
+      <c r="K190" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L190" t="n">
@@ -5669,28 +5681,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="2">
+      <c r="A192" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B192" t="s" s="2">
+      <c r="B192" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C192" t="s" s="2">
+      <c r="C192" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D192" t="s" s="2">
+      <c r="D192" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E192" t="s" s="2">
+      <c r="E192" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G192" t="s" s="2">
+      <c r="G192" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H192" t="s" s="2">
+      <c r="H192" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5715,28 +5727,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C194" t="s" s="2">
+      <c r="C194" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D194" t="s" s="2">
+      <c r="D194" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I194" t="s" s="2">
+      <c r="I194" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5795,10 +5807,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="2" t="s">
+      <c r="J196" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K196" s="2" t="s">
+      <c r="K196" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
